--- a/INPUT/test/example4.xlsx
+++ b/INPUT/test/example4.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2MaiML2/INPUT/test2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAA04BC-B08B-B94B-9077-5B143696C195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96C3F32-0069-7C43-86DD-C9BA711AAD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENT" sheetId="1" r:id="rId1"/>
     <sheet name="PROTOCOL" sheetId="2" r:id="rId2"/>
     <sheet name="@HPLCpnmlID001" sheetId="3" r:id="rId3"/>
     <sheet name="@HPLCpnmlID002" sheetId="8" r:id="rId4"/>
-    <sheet name="@HPLCmethodID001" sheetId="5" r:id="rId5"/>
+    <sheet name="@HPLCprotocolID001" sheetId="5" r:id="rId5"/>
     <sheet name="@HPLCprogramID001" sheetId="7" r:id="rId6"/>
     <sheet name="@HPLCprogramID002" sheetId="9" r:id="rId7"/>
     <sheet name="TEMPLATE" sheetId="6" r:id="rId8"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="150">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>UUID</t>
-  </si>
-  <si>
-    <t>PROGRAMID</t>
   </si>
   <si>
     <t>TRANSITIONREF</t>
@@ -712,6 +709,14 @@
     <rPh sb="2" eb="4">
       <t>シリョウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PARENTID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HPLCmethodID002</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -4970,18 +4975,18 @@
         <v>15</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -4992,60 +4997,60 @@
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -5054,16 +5059,16 @@
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
@@ -5082,10 +5087,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
@@ -5116,18 +5121,18 @@
         <v>15</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
@@ -5138,10 +5143,10 @@
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
@@ -5152,10 +5157,10 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
@@ -5166,80 +5171,102 @@
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1">
       <c r="A5" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="39"/>
+      <c r="G5" s="50" t="s">
+        <v>56</v>
+      </c>
       <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1">
       <c r="A6" s="38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="39"/>
+      <c r="G6" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" customHeight="1">
       <c r="A7" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="39"/>
+      <c r="G7" s="50" t="s">
+        <v>56</v>
+      </c>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A8" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65" t="s">
+      <c r="A8" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A9" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A9" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="56" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A10" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>136</v>
+      <c r="H10" s="60" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5290,13 +5317,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -5306,13 +5333,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -5322,13 +5349,13 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>67</v>
-      </c>
       <c r="D4" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -5338,7 +5365,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -5350,7 +5377,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -5362,7 +5389,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -5374,7 +5401,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -5430,13 +5457,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -5446,13 +5473,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -5462,13 +5489,13 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -5478,7 +5505,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -5490,7 +5517,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -5502,7 +5529,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -5514,7 +5541,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -5536,7 +5563,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
@@ -5573,21 +5600,21 @@
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>137</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>138</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -5642,32 +5669,32 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -5722,15 +5749,15 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -5739,15 +5766,15 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -5764,7 +5791,7 @@
   </sheetPr>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
@@ -5825,16 +5852,16 @@
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1">
       <c r="A2" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>75</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
@@ -5848,16 +5875,16 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1">
       <c r="A3" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="49" t="s">
         <v>77</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>78</v>
       </c>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
@@ -5865,26 +5892,26 @@
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L3" s="51"/>
       <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1">
       <c r="A4" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>79</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>80</v>
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="51"/>
@@ -5892,17 +5919,17 @@
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
       <c r="J4" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L4" s="51"/>
       <c r="M4" s="51"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1">
       <c r="A5" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -5919,7 +5946,7 @@
     </row>
     <row r="6" spans="1:13" ht="24" customHeight="1">
       <c r="A6" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -5936,7 +5963,7 @@
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1">
       <c r="A7" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
@@ -5953,16 +5980,16 @@
     </row>
     <row r="8" spans="1:13" ht="24" customHeight="1">
       <c r="A8" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="49" t="s">
         <v>74</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>75</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
@@ -5976,16 +6003,16 @@
     </row>
     <row r="9" spans="1:13" ht="24" customHeight="1">
       <c r="A9" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="49" t="s">
         <v>77</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>78</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
@@ -5993,26 +6020,26 @@
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
       <c r="J9" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9" s="53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L9" s="51"/>
       <c r="M9" s="51"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1">
       <c r="A10" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="49" t="s">
         <v>79</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>80</v>
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
@@ -6020,26 +6047,26 @@
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
       <c r="J10" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="51"/>
       <c r="M10" s="51"/>
     </row>
     <row r="11" spans="1:13" ht="24" customHeight="1">
       <c r="A11" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="49" t="s">
         <v>74</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>75</v>
       </c>
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
@@ -6053,16 +6080,16 @@
     </row>
     <row r="12" spans="1:13" ht="24" customHeight="1">
       <c r="A12" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="49" t="s">
         <v>111</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>112</v>
       </c>
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
@@ -6070,7 +6097,7 @@
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
       <c r="J12" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K12" s="53"/>
       <c r="L12" s="51"/>
@@ -6078,16 +6105,16 @@
     </row>
     <row r="13" spans="1:13" ht="24" customHeight="1">
       <c r="A13" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="49" t="s">
         <v>74</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>75</v>
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
@@ -6101,16 +6128,16 @@
     </row>
     <row r="14" spans="1:13" ht="24" customHeight="1">
       <c r="A14" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
@@ -6118,7 +6145,7 @@
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
       <c r="J14" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K14" s="53"/>
       <c r="L14" s="51"/>
@@ -6126,16 +6153,16 @@
     </row>
     <row r="15" spans="1:13" ht="24" customHeight="1">
       <c r="A15" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -6143,7 +6170,7 @@
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
       <c r="J15" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K15" s="53"/>
       <c r="L15" s="51"/>
@@ -6151,26 +6178,26 @@
     </row>
     <row r="16" spans="1:13" ht="24" customHeight="1">
       <c r="A16" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="51" t="s">
         <v>116</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>117</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="52"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
       <c r="J16" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K16" s="53"/>
       <c r="L16" s="51"/>
@@ -6178,16 +6205,16 @@
     </row>
     <row r="17" spans="1:13" ht="24" customHeight="1">
       <c r="A17" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="49" t="s">
         <v>74</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>75</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="51"/>
@@ -6201,16 +6228,16 @@
     </row>
     <row r="18" spans="1:13" ht="24" customHeight="1">
       <c r="A18" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
@@ -6218,7 +6245,7 @@
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
       <c r="J18" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K18" s="53"/>
       <c r="L18" s="51"/>
@@ -6226,16 +6253,16 @@
     </row>
     <row r="19" spans="1:13" ht="24" customHeight="1">
       <c r="A19" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="49" t="s">
         <v>74</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>75</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -6249,16 +6276,16 @@
     </row>
     <row r="20" spans="1:13" ht="24" customHeight="1">
       <c r="A20" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
@@ -6266,7 +6293,7 @@
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
       <c r="J20" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K20" s="53"/>
       <c r="L20" s="51"/>
@@ -6274,26 +6301,26 @@
     </row>
     <row r="21" spans="1:13" ht="24" customHeight="1">
       <c r="A21" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="52"/>
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
       <c r="J21" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K21" s="53"/>
       <c r="L21" s="51"/>
@@ -6301,16 +6328,16 @@
     </row>
     <row r="22" spans="1:13" ht="24" customHeight="1">
       <c r="A22" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="49" t="s">
         <v>74</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>75</v>
       </c>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
@@ -6324,26 +6351,26 @@
     </row>
     <row r="23" spans="1:13" ht="24" customHeight="1">
       <c r="A23" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="51" t="s">
         <v>122</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>123</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="52"/>
       <c r="H23" s="51"/>
       <c r="I23" s="51"/>
       <c r="J23" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K23" s="53"/>
       <c r="L23" s="51"/>
@@ -6351,26 +6378,26 @@
     </row>
     <row r="24" spans="1:13" ht="24" customHeight="1">
       <c r="A24" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="52"/>
       <c r="H24" s="51"/>
       <c r="I24" s="51"/>
       <c r="J24" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K24" s="53"/>
       <c r="L24" s="51"/>
@@ -6378,16 +6405,16 @@
     </row>
     <row r="25" spans="1:13" ht="24" customHeight="1">
       <c r="A25" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="49" t="s">
         <v>74</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>75</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
@@ -6401,26 +6428,26 @@
     </row>
     <row r="26" spans="1:13" ht="24" customHeight="1">
       <c r="A26" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="51" t="s">
         <v>128</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>129</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="52"/>
       <c r="H26" s="51"/>
       <c r="I26" s="51"/>
       <c r="J26" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K26" s="53"/>
       <c r="L26" s="51"/>
@@ -6428,16 +6455,16 @@
     </row>
     <row r="27" spans="1:13" ht="24" customHeight="1">
       <c r="A27" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" s="51"/>
       <c r="F27" s="51"/>
@@ -6451,16 +6478,16 @@
     </row>
     <row r="28" spans="1:13" ht="24" customHeight="1">
       <c r="A28" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="51"/>
       <c r="F28" s="51"/>
@@ -6471,21 +6498,21 @@
       <c r="K28" s="53"/>
       <c r="L28" s="51"/>
       <c r="M28" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="24" customHeight="1">
       <c r="A29" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E29" s="51"/>
       <c r="F29" s="51"/>
@@ -6496,24 +6523,24 @@
       <c r="K29" s="53"/>
       <c r="L29" s="51"/>
       <c r="M29" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="24" customHeight="1">
       <c r="A30" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="52"/>
@@ -6523,24 +6550,24 @@
       <c r="K30" s="53"/>
       <c r="L30" s="51"/>
       <c r="M30" s="51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="24" customHeight="1">
       <c r="A31" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="52"/>
@@ -6550,24 +6577,24 @@
       <c r="K31" s="53"/>
       <c r="L31" s="51"/>
       <c r="M31" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="24" customHeight="1">
       <c r="A32" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="52"/>
@@ -6577,77 +6604,77 @@
       <c r="K32" s="53"/>
       <c r="L32" s="51"/>
       <c r="M32" s="51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="24" customHeight="1">
       <c r="A33" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>84</v>
-      </c>
       <c r="E33" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="52"/>
       <c r="H33" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I33" s="51"/>
       <c r="J33" s="51"/>
       <c r="K33" s="53"/>
       <c r="L33" s="51"/>
       <c r="M33" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="24" customHeight="1">
       <c r="A34" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="49" t="s">
         <v>83</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>84</v>
       </c>
       <c r="E34" s="51"/>
       <c r="F34" s="51"/>
       <c r="G34" s="52"/>
       <c r="H34" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I34" s="51"/>
       <c r="J34" s="51"/>
       <c r="K34" s="53"/>
       <c r="L34" s="51"/>
       <c r="M34" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="24" customHeight="1">
       <c r="A35" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="49" t="s">
         <v>74</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="49" t="s">
-        <v>75</v>
       </c>
       <c r="E35" s="51"/>
       <c r="F35" s="51"/>
@@ -6661,26 +6688,26 @@
     </row>
     <row r="36" spans="1:13" ht="24" customHeight="1">
       <c r="A36" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>84</v>
-      </c>
       <c r="E36" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="52"/>
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
       <c r="J36" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K36" s="53"/>
       <c r="L36" s="51"/>
@@ -6688,26 +6715,26 @@
     </row>
     <row r="37" spans="1:13" ht="24" customHeight="1">
       <c r="A37" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="49" t="s">
-        <v>84</v>
-      </c>
       <c r="E37" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="52"/>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
       <c r="J37" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K37" s="53"/>
       <c r="L37" s="51"/>
@@ -6715,26 +6742,26 @@
     </row>
     <row r="38" spans="1:13" ht="24" customHeight="1">
       <c r="A38" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>84</v>
-      </c>
       <c r="E38" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="52"/>
       <c r="H38" s="51"/>
       <c r="I38" s="51"/>
       <c r="J38" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K38" s="53"/>
       <c r="L38" s="51"/>
@@ -6742,16 +6769,16 @@
     </row>
     <row r="39" spans="1:13" ht="24" customHeight="1">
       <c r="A39" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="49" t="s">
         <v>83</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="49" t="s">
-        <v>84</v>
       </c>
       <c r="E39" s="51"/>
       <c r="F39" s="51"/>
@@ -6759,7 +6786,7 @@
       <c r="H39" s="51"/>
       <c r="I39" s="51"/>
       <c r="J39" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K39" s="53"/>
       <c r="L39" s="51"/>
@@ -6767,16 +6794,16 @@
     </row>
     <row r="40" spans="1:13" ht="24" customHeight="1">
       <c r="A40" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="49" t="s">
         <v>83</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="49" t="s">
-        <v>84</v>
       </c>
       <c r="E40" s="51"/>
       <c r="F40" s="51"/>
@@ -6784,7 +6811,7 @@
       <c r="H40" s="51"/>
       <c r="I40" s="51"/>
       <c r="J40" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K40" s="53"/>
       <c r="L40" s="51"/>
@@ -6792,16 +6819,16 @@
     </row>
     <row r="41" spans="1:13" ht="24" customHeight="1">
       <c r="A41" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" s="51"/>
       <c r="F41" s="51"/>
@@ -6809,7 +6836,7 @@
       <c r="H41" s="51"/>
       <c r="I41" s="51"/>
       <c r="J41" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K41" s="53"/>
       <c r="L41" s="51"/>
@@ -6817,16 +6844,16 @@
     </row>
     <row r="42" spans="1:13" ht="24" customHeight="1">
       <c r="A42" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E42" s="51"/>
       <c r="F42" s="51"/>
@@ -6834,7 +6861,7 @@
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
       <c r="J42" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K42" s="53"/>
       <c r="L42" s="51"/>

--- a/INPUT/test/example4.xlsx
+++ b/INPUT/test/example4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2MaiML2/INPUT/test2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96C3F32-0069-7C43-86DD-C9BA711AAD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9402825D-FE35-3A44-8FAC-7E379ED0E3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="700" windowWidth="37900" windowHeight="27000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="175">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -551,18 +551,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>BBBBHPLC:solvent</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>BBBBHPLC:composition</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>BBBBHPLC:ph</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>BBBBHPLC:flowRate</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -579,14 +571,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>BBBBHPLC:sampleSolvent</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>mg/mL</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>BBBBHPLC:columnTemperature</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -595,35 +579,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>BBBBHPLC:sampleTemperature</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BBBBHPLC:pressure</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BBBBHPLC:temperature</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>BBBBHPLC:detector</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BBBBHPLC:systemPressure</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>bar</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>intType</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BBBBHPLC:separationMode</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -717,6 +673,213 @@
   </si>
   <si>
     <t>HPLCmethodID002</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BBBBHPLC:carbonicAcidRemovedFlag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>booleanType</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>炭酸除去</t>
+    <rPh sb="0" eb="4">
+      <t>タンサn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>希釈</t>
+    <rPh sb="0" eb="2">
+      <t>キシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>濾過</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ロカ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BBBBHPLC:dilutionFlag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BBBBHPLC:mobilePhase</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検出器</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシュテゥ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>移動相</t>
+    <rPh sb="0" eb="3">
+      <t>イドウソウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>移動相の構成</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カラム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BBBBHPLC:operationgConditions</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BBBBHPLC:injectionVolume</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>uL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UV Detector-aaaaaa</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BBBBHPLC:uvDetection</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nm</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BBBBHPLC:runTime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BBBBHPLC:samplenameBeforeProcessing</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BBBBHPLC:sampleIDBeforeProcessing</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>前処理の条件</t>
+    <rPh sb="0" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウケn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BBBBHPLC:carbonicAcidRemovedSpecifications</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>炭酸除去方法</t>
+    <rPh sb="0" eb="4">
+      <t>タンサn</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BBBBHPLC:dilutionSpecifications</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>希釈方法</t>
+    <rPh sb="0" eb="4">
+      <t>キシャク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BBBBHPLC:filtration</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BBBBHPLC:filtrationSpecifications</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>濾過方法</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ロカ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PTFEフィルターを使用</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BBBBHPLC:SPEFlag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SPE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BBBBHPLC:SPESpecifications</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C18 cartridgeを使用し疎水性の不純物を除去</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ソスイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>フジュn</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョキョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SPE方法</t>
+    <rPh sb="3" eb="5">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HPLC_Sample_Preparation</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1151,7 +1314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1361,12 +1524,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF1E3C5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1379,6 +1559,2531 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>553773</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1177228</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円/楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62738A2-7ED7-7D4D-9929-734E0C7735D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2588021" y="5837137"/>
+          <a:ext cx="623455" cy="623455"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>586162</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>631881</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>103236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3DEE47-953D-154F-A2C7-B4E00D24F13D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4654658" y="5837138"/>
+          <a:ext cx="45719" cy="1616363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1177228</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>586162</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14348</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C59DB6-3FDA-D94D-82D7-6512204E2AD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="6"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3211476" y="6148864"/>
+          <a:ext cx="1443182" cy="496457"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1177279</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>631881</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>134959</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BF9E40-9601-A945-8A12-D5F42F1E39FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="32" idx="5"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3211527" y="6645320"/>
+          <a:ext cx="1488850" cy="660081"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>586162</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1803052</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>18964</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D021B5CC-D58E-D644-B7F0-A0BA1EEFC3F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4654658" y="6645320"/>
+          <a:ext cx="1216890" cy="4617"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438319</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>54193</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="958276" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD3F1ED-EDE9-A745-AF71-9FCC2B9F84C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2472567" y="5606228"/>
+          <a:ext cx="958276" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HPLCM_P001</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>532992</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>168177</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="912879" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A19D46-23FC-EC4F-AE64-94AC0942ED95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2567240" y="7698265"/>
+          <a:ext cx="912879" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HPLCC_P001</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1575515</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47674</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="958276" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BDFF7DF-A7D7-554A-9E43-C8F36A6151CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5644011" y="7038293"/>
+          <a:ext cx="958276" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HPLCM_P002</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1941538</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44956</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1283813" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{816628A3-7290-E944-8FD4-24AB5AF59C4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3975786" y="5596991"/>
+          <a:ext cx="1283813" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HPLCtransition001</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1378120</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15796</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="870879" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{164FFFEA-F9E8-B545-9E24-16387E4E4856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3412368" y="6107300"/>
+          <a:ext cx="870879" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HPLCarc001</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1530520</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>65718</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="870879" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1853261C-A4E7-404D-BAE5-14EE08BCC5F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3564768" y="7056337"/>
+          <a:ext cx="870879" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HPLCarc002</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>757036</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>129229</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="870879" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BCA9A4-7EAA-3443-8F23-36A2A59830F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4825532" y="6400556"/>
+          <a:ext cx="870879" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HPLCarc003</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1803052</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>392260</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>150867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="円/楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EEC56D-94BA-4940-8E12-678835394154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5871548" y="6338209"/>
+          <a:ext cx="623455" cy="623454"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>643685</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>94040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1267140</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>178026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="円/楕円 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CBEDEE-D98D-334B-A689-E53A72071C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8780676" y="5825898"/>
+          <a:ext cx="623455" cy="623455"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1911436</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>62572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>494705</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>140619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261EFE64-484F-E34C-B4FF-2C782A158D43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12082675" y="6333899"/>
+          <a:ext cx="617517" cy="617516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676074</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>94041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>721793</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91997</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAAD6585-6BDE-204F-AD20-CFE97726A30A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10847313" y="5825899"/>
+          <a:ext cx="45719" cy="1616363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1267140</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>46121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676074</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3109</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B1D270-2019-C842-8FDD-C008C998CEBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="6"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9404131" y="6137625"/>
+          <a:ext cx="1443182" cy="496457"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1268540</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>721793</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>147547</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F93F6A-D97C-1644-B51C-C75B95BC11FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="35" idx="5"/>
+          <a:endCxn id="18" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9405531" y="6634081"/>
+          <a:ext cx="1487501" cy="683908"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676074</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1911436</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11686</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32D1366-6720-5F4A-A7CD-4432D833D9FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="18" idx="1"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10847313" y="6634082"/>
+          <a:ext cx="1235362" cy="8577"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>427080</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9237</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="958276" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D2EBCB-5798-D943-9206-9654144787F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564071" y="6460387"/>
+          <a:ext cx="958276" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HPLCM_P003</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622904</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>156938</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="912879" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5465C3FB-B967-AF47-B16A-92A119266E16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8759895" y="7687026"/>
+          <a:ext cx="912879" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HPLCC_P002</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1789056</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>115108</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914289" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5ECD8F-4C71-084E-B0D2-E893978E7262}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11960295" y="6026789"/>
+          <a:ext cx="914289" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HPLCR_P001</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2031450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>33717</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1248290" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFA6D13-4208-204B-90B7-01577F60EFEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10168441" y="5585752"/>
+          <a:ext cx="1248290" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HPLCtransition002</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1620432</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>54479</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="870879" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B3BE61-900B-0F4A-A375-3C4C29546426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9757423" y="7045098"/>
+          <a:ext cx="870879" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HPLCarc005</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>846948</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>117990</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="870879" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D17C95C3-AB1E-454D-992F-9DE82310DBA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11018187" y="6389317"/>
+          <a:ext cx="870879" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HPLCarc006</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1474960</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>168217</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="870879" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423E2AC0-63D0-A947-B194-123D8219635C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9611951" y="6079898"/>
+          <a:ext cx="870879" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HPLCarc004</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762367</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>145289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1055396</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>78672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="円/楕円 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D799E85-C485-3346-A8B9-5044FAA327CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2796615" y="4798209"/>
+          <a:ext cx="293029" cy="293029"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1240696</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1533725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="円/楕円 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EE52E3-5DFD-5F4F-8E56-7A4A6CD1D0B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343439" y="4703352"/>
+          <a:ext cx="293029" cy="293029"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>528231</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>78673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1177280</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>157346</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="五角形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21ADF9FC-6996-0431-294E-A1E02F08E605}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562479" y="7069292"/>
+          <a:ext cx="649049" cy="618142"/>
+        </a:xfrm>
+        <a:prstGeom prst="pentagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>725588</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1073006</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>179822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="五角形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9945C68-5360-9A49-B57C-CFD8C74CF1A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2759836" y="8457975"/>
+          <a:ext cx="347418" cy="330874"/>
+        </a:xfrm>
+        <a:prstGeom prst="pentagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619492</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>91261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1268541</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>169934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="五角形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3864007D-C586-0D4D-B3CC-41D9CCFB583E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8756483" y="7081880"/>
+          <a:ext cx="649049" cy="618142"/>
+        </a:xfrm>
+        <a:prstGeom prst="pentagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>709404</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1056822</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>163638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="五角形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3009AF2C-E703-634C-AFE5-2B18F3E6D688}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8846395" y="8441791"/>
+          <a:ext cx="347418" cy="330874"/>
+        </a:xfrm>
+        <a:prstGeom prst="pentagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>865501</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>78672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>908882</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105279</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{690E94A7-EEE0-3189-C37D-2EC9B2A9E667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="4"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2899749" y="5091238"/>
+          <a:ext cx="43381" cy="745899"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>852756</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>157346</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>899297</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28771</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4AA151-08B3-9144-8CF7-4BDD753FFB88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2887004" y="7687434"/>
+          <a:ext cx="46541" cy="770541"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>300957</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1387211</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>158185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580D1C13-8FA8-4C45-86F8-71595ADF708D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="4"/>
+          <a:endCxn id="15" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6403700" y="4996381"/>
+          <a:ext cx="1086254" cy="1433131"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>185947</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>140619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>191837</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC7A754-0A58-2E47-A22D-0EDCA9AA7BFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="53" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12391434" y="6951415"/>
+          <a:ext cx="5890" cy="816123"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>883113</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>169934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>944017</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43BF620-025D-3441-AF92-5AEAD43E6B8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="3"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9020104" y="7700022"/>
+          <a:ext cx="60904" cy="741769"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1387211</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>734988</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5520</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920424BB-9700-634B-AD48-39607E238978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="4"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7489954" y="4996381"/>
+          <a:ext cx="1382025" cy="920820"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52066</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>331608</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>157344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1410F0F-E619-7F41-A849-95E9A7C37824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12257553" y="7767538"/>
+          <a:ext cx="279542" cy="279541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89911</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>67434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>854159</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>22477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="角丸四角形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6557301-28A8-BE94-C065-1388513B7B53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124159" y="4001062"/>
+          <a:ext cx="4832743" cy="5169911"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1995587</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1118949</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="角丸四角形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA9C6C2-F805-AD4C-B97E-EB836D713790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8098330" y="4007355"/>
+          <a:ext cx="5226106" cy="5169911"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1851503</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4578</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1269578" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F434471-8549-3746-B6D5-4915A18FE750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3885751" y="3758383"/>
+          <a:ext cx="1269578" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HPLCmethodID001</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1925231</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1269578" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA6A83F-2CC9-8942-A0AF-EC8455C659FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10062222" y="3787155"/>
+          <a:ext cx="1269578" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HPLCmethodID002</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1501,64 +4206,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1189181</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>138543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1858818</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>23090</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="三角形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFE21D9-AC9E-099C-8A17-9E4134E5D2AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1189181" y="5795816"/>
-          <a:ext cx="669637" cy="577274"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>1685636</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>57726</xdr:rowOff>
@@ -1615,15 +4262,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1691409</xdr:colOff>
+      <xdr:colOff>1831107</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1142537</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>80817</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>136954</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1635,14 +4282,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="5"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="3" idx="5"/>
           <a:endCxn id="6" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1691409" y="5345546"/>
-          <a:ext cx="1483128" cy="738907"/>
+          <a:off x="1831107" y="4906818"/>
+          <a:ext cx="1343430" cy="621863"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2140,822 +4788,6 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>94671</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1156854</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="円/楕円 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8E4317-B510-584C-B3AA-A83B4C67424B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6629399" y="4539671"/>
-          <a:ext cx="623455" cy="623455"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1803398</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>388915</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7916</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D81F475-BCE0-6845-966B-6BE1BDC92F02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9931398" y="5047672"/>
-          <a:ext cx="617517" cy="617517"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>568036</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>94672</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>613755</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB90FE1-E915-DF4B-BE72-CFDD33B364D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8696036" y="4539672"/>
-          <a:ext cx="45719" cy="1616363"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>140852</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1330036</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="三角形 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69ED9F7B-2731-7D4B-8BF2-9EAFCD3D6FA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6756399" y="5798125"/>
-          <a:ext cx="669637" cy="577274"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1156854</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>60035</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>568036</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>36946</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F967DA58-0EAC-A14B-8C3F-BA2D539AACEA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="6"/>
-          <a:endCxn id="16" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7252854" y="4851399"/>
-          <a:ext cx="1443182" cy="496456"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1162627</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>36946</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>613755</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>83126</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C30B9B5-6AEC-924D-B335-FC65418EE579}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="5"/>
-          <a:endCxn id="16" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7258627" y="5347855"/>
-          <a:ext cx="1483128" cy="738907"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>568036</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>36946</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1803398</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45523</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD2C28A-B660-624C-87D4-79CB97B57B3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="16" idx="1"/>
-          <a:endCxn id="15" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8696036" y="5347855"/>
-          <a:ext cx="1235362" cy="8577"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>417945</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>36944</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="958276" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="テキスト ボックス 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE97EE6-44E8-ED44-A28C-EA66F22067FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6513945" y="4308762"/>
-          <a:ext cx="958276" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HPLCM_P003</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512618</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="912879" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="テキスト ボックス 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418E9B02-55F8-AF49-8C2C-130B1AA9FBA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6608618" y="6400799"/>
-          <a:ext cx="912879" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HPLCC_P002</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1681018</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>122380</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="914289" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="テキスト ボックス 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F1CCEC-5C02-CF4D-B9FC-F5D0787A79A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9809018" y="4740562"/>
-          <a:ext cx="914289" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HPLCR_P001</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1921164</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>27707</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1248290" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="テキスト ボックス 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA53630E-1EB5-6946-8328-4EB9683F5FA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8017164" y="4299525"/>
-          <a:ext cx="1248290" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HPLCtransition002</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1510146</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="870879" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0F7E55-4D3D-AE48-A8E0-326DEEFBC9C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7606146" y="5758872"/>
-          <a:ext cx="870879" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HPLCarc005</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>738910</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="870879" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A1D711-80A2-3E4B-8D1B-8CA4D21811A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8866910" y="5103090"/>
-          <a:ext cx="870879" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HPLCarc006</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1364674</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>2308</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="870879" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="テキスト ボックス 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE4DFEB-C241-C143-B33B-7E7D7FB59C12}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7460674" y="4793672"/>
-          <a:ext cx="870879" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HPLCarc004</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>281708</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -3012,30 +4844,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1062181</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>92362</xdr:rowOff>
+      <xdr:colOff>1200726</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1685636</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>23090</xdr:rowOff>
+      <xdr:colOff>1831108</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="円/楕円 1">
+        <xdr:cNvPr id="3" name="五角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB52CC3-F601-F241-AC81-2BFA32266857}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4EBF76-CBEE-A51F-A333-8E388DC98609}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3043,10 +4870,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1062181" y="5210462"/>
-          <a:ext cx="623455" cy="641928"/>
+          <a:off x="1200726" y="5299363"/>
+          <a:ext cx="630382" cy="600364"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="pentagon">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -3075,706 +4902,11 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1096818</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>92363</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1142537</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>150090</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA8348FA-7E06-884A-9B7E-7CA2B4632E51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3128818" y="5210463"/>
-          <a:ext cx="45719" cy="1657927"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1189181</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>138543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1858818</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>23090</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="三角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA19212-53AE-0248-8540-BA2B74416CA7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1189181" y="6501243"/>
-          <a:ext cx="669637" cy="595747"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1685636</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1096818</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8DF604-8F88-2F41-BC78-CC0B73C16540}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="6"/>
-          <a:endCxn id="3" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1685636" y="5531426"/>
-          <a:ext cx="1443182" cy="510311"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1691409</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1142537</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>80817</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA9C5E7-989D-0D44-BC49-1202643CFD70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="5"/>
-          <a:endCxn id="3" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1691409" y="6041737"/>
-          <a:ext cx="1483128" cy="757380"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1096818</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>281708</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>39253</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6483E79E-BDDC-B243-BC34-B6A769BA14DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="3" idx="1"/>
-          <a:endCxn id="29" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3128818" y="6041736"/>
-          <a:ext cx="1216890" cy="4617"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>946727</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>34635</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="958276" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE3F3AB-C019-FE42-9A86-F8B976752ED5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="946727" y="4974935"/>
-          <a:ext cx="958276" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HPLCM_P001</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>48490</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="912879" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FF2B19-69D7-A34D-8079-4613C2FFA905}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1041400" y="7122390"/>
-          <a:ext cx="912879" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HPLCC_P001</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>120071</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="958276" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B913953-1154-7D4D-B4FF-CDD3D8B36061}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4241800" y="5415971"/>
-          <a:ext cx="958276" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HPLCM_P002</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>417946</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25398</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1283813" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2EA4E0-DE14-6B41-A6EA-6A0FE70C3529}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2449946" y="4965698"/>
-          <a:ext cx="1283813" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HPLCtransition001</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1886528</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>16162</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="870879" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC0A464-6486-7E43-9DD6-E89F0F245DDD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1886528" y="5489862"/>
-          <a:ext cx="870879" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HPLCarc001</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6928</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>99290</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="870879" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515FFEF8-FB82-274A-B653-7A86561DD25C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2038928" y="6461990"/>
-          <a:ext cx="870879" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HPLCarc002</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1267692</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>136236</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="870879" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FFB023A-01D9-AC47-BED2-273525C2CB0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3299692" y="5787736"/>
-          <a:ext cx="870879" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HPLCarc003</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -3954,64 +5086,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>140852</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1330036</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="三角形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA5CC56-648A-EC48-B26B-5D6D3A55D691}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6756399" y="6503552"/>
-          <a:ext cx="669637" cy="595747"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>1156854</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>60035</xdr:rowOff>
@@ -4068,15 +5142,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1162627</xdr:colOff>
+      <xdr:colOff>1253836</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>36946</xdr:rowOff>
+      <xdr:rowOff>36945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>613755</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>83126</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>67682</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4088,14 +5162,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="18" idx="5"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="2" idx="5"/>
           <a:endCxn id="17" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7258627" y="6044046"/>
-          <a:ext cx="1483128" cy="757380"/>
+          <a:off x="7349836" y="4909127"/>
+          <a:ext cx="1391919" cy="550282"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4593,23 +5668,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>281708</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>73889</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>623455</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>905163</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>4616</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1253837</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="円/楕円 28">
+        <xdr:cNvPr id="2" name="五角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14CDE6A7-E0C3-C24B-93CE-FB5B7E9367F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4BCAAB-C549-434C-891D-5FAEEF359879}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4617,10 +5692,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4345708" y="5725389"/>
-          <a:ext cx="623455" cy="641927"/>
+          <a:off x="6719455" y="5230091"/>
+          <a:ext cx="630382" cy="600364"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="pentagon">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -4942,7 +6017,7 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -5089,8 +6164,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
@@ -5121,7 +6196,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>26</v>
@@ -5160,7 +6235,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
@@ -5190,14 +6265,14 @@
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="50" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="H6" s="40"/>
     </row>
@@ -5222,14 +6297,14 @@
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="50" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="H8" s="40"/>
     </row>
@@ -5241,7 +6316,9 @@
         <v>59</v>
       </c>
       <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
+      <c r="D9" s="63" t="s">
+        <v>174</v>
+      </c>
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
       <c r="G9" s="65" t="s">
@@ -5256,22 +6333,25 @@
         <v>31</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
+      <c r="D10" s="57" t="s">
+        <v>45</v>
+      </c>
       <c r="E10" s="58"/>
       <c r="F10" s="58"/>
       <c r="G10" s="59" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5355,7 +6435,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -5389,7 +6469,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -5423,7 +6503,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
@@ -5457,13 +6537,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -5473,13 +6553,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -5489,10 +6569,10 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D4" s="48" t="s">
         <v>62</v>
@@ -5505,7 +6585,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -5517,7 +6597,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -5541,11 +6621,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
   </sheetData>
@@ -5603,13 +6685,13 @@
         <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -5677,7 +6759,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="67" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -5694,7 +6776,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="67" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -5749,10 +6831,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5789,15 +6871,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="4" width="25.1640625" style="45"/>
+    <col min="1" max="2" width="25.1640625" style="45"/>
+    <col min="3" max="3" width="37.33203125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="45"/>
     <col min="5" max="5" width="14.83203125" style="45" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" style="45" customWidth="1"/>
     <col min="7" max="7" width="20.1640625" style="47" customWidth="1"/>
@@ -5928,19 +7012,17 @@
       <c r="M4" s="51"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1">
-      <c r="A5" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
       <c r="G5" s="52"/>
       <c r="H5" s="51"/>
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
-      <c r="K5" s="53"/>
+      <c r="K5" s="68"/>
       <c r="L5" s="51"/>
       <c r="M5" s="51"/>
     </row>
@@ -5948,122 +7030,148 @@
       <c r="A6" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="B6" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>74</v>
+      </c>
       <c r="E6" s="51"/>
       <c r="F6" s="51"/>
       <c r="G6" s="52"/>
       <c r="H6" s="51"/>
       <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
+      <c r="J6" s="70"/>
       <c r="K6" s="53"/>
       <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
+      <c r="M6" s="51" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1">
       <c r="A7" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>140</v>
+      </c>
       <c r="E7" s="51"/>
       <c r="F7" s="51"/>
       <c r="G7" s="52"/>
       <c r="H7" s="51"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="53"/>
+      <c r="J7" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="68" t="s">
+        <v>141</v>
+      </c>
       <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
+      <c r="M7" s="51" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="24" customHeight="1">
       <c r="A8" s="50" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
       <c r="G8" s="52"/>
       <c r="H8" s="51"/>
       <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="53"/>
+      <c r="J8" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="68"/>
       <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
+      <c r="M8" s="51" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="24" customHeight="1">
       <c r="A9" s="50" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="B9" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>76</v>
+      <c r="C9" s="69" t="s">
+        <v>145</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
       <c r="G9" s="52"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="53" t="s">
-        <v>81</v>
+      <c r="J9" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="68" t="s">
+        <v>141</v>
       </c>
       <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
+      <c r="M9" s="51" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1">
       <c r="A10" s="50" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="B10" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>78</v>
+      <c r="C10" s="69" t="s">
+        <v>163</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
       <c r="G10" s="52"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
-      <c r="J10" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="53" t="s">
-        <v>80</v>
-      </c>
+      <c r="J10" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="68"/>
       <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="M10" s="51" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="24" customHeight="1">
       <c r="A11" s="50" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="B11" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>109</v>
+      <c r="C11" s="69" t="s">
+        <v>165</v>
       </c>
       <c r="D11" s="49" t="s">
         <v>74</v>
@@ -6073,20 +7181,24 @@
       <c r="G11" s="52"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="53"/>
+      <c r="J11" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="68"/>
       <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
+      <c r="M11" s="51" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="24" customHeight="1">
       <c r="A12" s="50" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="B12" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>110</v>
+      <c r="C12" s="69" t="s">
+        <v>166</v>
       </c>
       <c r="D12" s="49" t="s">
         <v>111</v>
@@ -6096,45 +7208,55 @@
       <c r="G12" s="52"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
-      <c r="J12" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="K12" s="53"/>
+      <c r="J12" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" s="68" t="s">
+        <v>168</v>
+      </c>
       <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
+      <c r="M12" s="51" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="24" customHeight="1">
       <c r="A13" s="50" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="B13" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
       <c r="G13" s="52"/>
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="53"/>
+      <c r="J13" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="68" t="s">
+        <v>141</v>
+      </c>
       <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="M13" s="51" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="24" customHeight="1">
       <c r="A14" s="50" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="B14" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="D14" s="49" t="s">
         <v>111</v>
@@ -6144,183 +7266,169 @@
       <c r="G14" s="52"/>
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
-      <c r="J14" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14" s="53"/>
+      <c r="J14" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" t="s">
+        <v>172</v>
+      </c>
       <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
+      <c r="M14" s="51" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="24" customHeight="1">
-      <c r="A15" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>84</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
       <c r="G15" s="52"/>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
-      <c r="J15" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="K15" s="53"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="68"/>
       <c r="L15" s="51"/>
       <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:13" ht="24" customHeight="1">
       <c r="A16" s="50" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B16" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>116</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E16" s="51"/>
       <c r="F16" s="51"/>
       <c r="G16" s="52"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
-      <c r="J16" s="51" t="s">
-        <v>112</v>
-      </c>
+      <c r="J16" s="70"/>
       <c r="K16" s="53"/>
       <c r="L16" s="51"/>
       <c r="M16" s="51"/>
     </row>
     <row r="17" spans="1:13" ht="24" customHeight="1">
       <c r="A17" s="50" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B17" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="51"/>
       <c r="G17" s="52"/>
       <c r="H17" s="51"/>
       <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="53"/>
+      <c r="J17" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="L17" s="51"/>
       <c r="M17" s="51"/>
     </row>
     <row r="18" spans="1:13" ht="24" customHeight="1">
       <c r="A18" s="50" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B18" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
       <c r="G18" s="52"/>
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
-      <c r="J18" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="K18" s="53"/>
+      <c r="J18" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="L18" s="51"/>
       <c r="M18" s="51"/>
     </row>
     <row r="19" spans="1:13" ht="24" customHeight="1">
-      <c r="A19" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>74</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
       <c r="G19" s="52"/>
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="53"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="68"/>
       <c r="L19" s="51"/>
       <c r="M19" s="51"/>
     </row>
     <row r="20" spans="1:13" ht="24" customHeight="1">
       <c r="A20" s="50" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B20" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="49" t="s">
-        <v>119</v>
+      <c r="C20" s="69" t="s">
+        <v>109</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
       <c r="G20" s="52"/>
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
-      <c r="J20" s="51" t="s">
-        <v>118</v>
-      </c>
+      <c r="J20" s="70"/>
       <c r="K20" s="53"/>
       <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
+      <c r="M20" s="51" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="24" customHeight="1">
       <c r="A21" s="50" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B21" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="49" t="s">
-        <v>109</v>
+      <c r="C21" s="69" t="s">
+        <v>110</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>120</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E21" s="51"/>
       <c r="F21" s="51"/>
       <c r="G21" s="52"/>
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
-      <c r="J21" s="51" t="s">
-        <v>118</v>
+      <c r="J21" s="70" t="s">
+        <v>109</v>
       </c>
       <c r="K21" s="53"/>
       <c r="L21" s="51"/>
@@ -6328,13 +7436,13 @@
     </row>
     <row r="22" spans="1:13" ht="24" customHeight="1">
       <c r="A22" s="50" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B22" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="49" t="s">
-        <v>125</v>
+      <c r="C22" s="69" t="s">
+        <v>146</v>
       </c>
       <c r="D22" s="49" t="s">
         <v>74</v>
@@ -6344,224 +7452,234 @@
       <c r="G22" s="52"/>
       <c r="H22" s="51"/>
       <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
+      <c r="J22" s="70"/>
       <c r="K22" s="53"/>
       <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
+      <c r="M22" s="51" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="24" customHeight="1">
       <c r="A23" s="50" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B23" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="49" t="s">
-        <v>121</v>
+      <c r="C23" s="69" t="s">
+        <v>112</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E23" s="51"/>
       <c r="F23" s="51"/>
       <c r="G23" s="52"/>
       <c r="H23" s="51"/>
       <c r="I23" s="51"/>
-      <c r="J23" s="51" t="s">
-        <v>125</v>
+      <c r="J23" s="70" t="s">
+        <v>146</v>
       </c>
       <c r="K23" s="53"/>
       <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
+      <c r="M23" s="51" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="24" customHeight="1">
       <c r="A24" s="50" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B24" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="49" t="s">
-        <v>123</v>
+      <c r="C24" s="69" t="s">
+        <v>119</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>122</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E24" s="51"/>
       <c r="F24" s="51"/>
       <c r="G24" s="52"/>
       <c r="H24" s="51"/>
       <c r="I24" s="51"/>
-      <c r="J24" s="51" t="s">
-        <v>125</v>
-      </c>
+      <c r="J24" s="70"/>
       <c r="K24" s="53"/>
       <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
+      <c r="M24" s="51" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="24" customHeight="1">
       <c r="A25" s="50" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B25" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="49" t="s">
-        <v>124</v>
+      <c r="C25" s="69" t="s">
+        <v>115</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
       <c r="G25" s="52"/>
       <c r="H25" s="51"/>
       <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="53"/>
+      <c r="J25" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="53" t="s">
+        <v>154</v>
+      </c>
       <c r="L25" s="51"/>
       <c r="M25" s="51"/>
     </row>
     <row r="26" spans="1:13" ht="24" customHeight="1">
       <c r="A26" s="50" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B26" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="49" t="s">
-        <v>127</v>
+      <c r="C26" s="69" t="s">
+        <v>151</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>128</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E26" s="51"/>
       <c r="F26" s="51"/>
       <c r="G26" s="52"/>
       <c r="H26" s="51"/>
       <c r="I26" s="51"/>
-      <c r="J26" s="51" t="s">
-        <v>124</v>
-      </c>
+      <c r="J26" s="70"/>
       <c r="K26" s="53"/>
       <c r="L26" s="51"/>
       <c r="M26" s="51"/>
     </row>
     <row r="27" spans="1:13" ht="24" customHeight="1">
       <c r="A27" s="50" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B27" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="49" t="s">
-        <v>130</v>
+      <c r="C27" s="69" t="s">
+        <v>113</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="51"/>
+        <v>84</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>114</v>
+      </c>
       <c r="F27" s="51"/>
       <c r="G27" s="52"/>
       <c r="H27" s="51"/>
       <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
+      <c r="J27" s="70" t="s">
+        <v>151</v>
+      </c>
       <c r="K27" s="53"/>
       <c r="L27" s="51"/>
       <c r="M27" s="51"/>
     </row>
     <row r="28" spans="1:13" ht="24" customHeight="1">
       <c r="A28" s="50" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B28" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="D28" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="51"/>
+      <c r="E28" s="51" t="s">
+        <v>153</v>
+      </c>
       <c r="F28" s="51"/>
       <c r="G28" s="52"/>
       <c r="H28" s="51"/>
       <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
+      <c r="J28" s="70" t="s">
+        <v>151</v>
+      </c>
       <c r="K28" s="53"/>
       <c r="L28" s="51"/>
-      <c r="M28" s="51" t="s">
-        <v>87</v>
-      </c>
+      <c r="M28" s="51"/>
     </row>
     <row r="29" spans="1:13" ht="24" customHeight="1">
       <c r="A29" s="50" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B29" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="49" t="s">
-        <v>95</v>
+      <c r="C29" s="69" t="s">
+        <v>117</v>
       </c>
       <c r="D29" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="51"/>
+      <c r="E29" s="51" t="s">
+        <v>118</v>
+      </c>
       <c r="F29" s="51"/>
       <c r="G29" s="52"/>
       <c r="H29" s="51"/>
       <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
+      <c r="J29" s="70" t="s">
+        <v>151</v>
+      </c>
       <c r="K29" s="53"/>
       <c r="L29" s="51"/>
-      <c r="M29" s="51" t="s">
-        <v>88</v>
-      </c>
+      <c r="M29" s="51"/>
     </row>
     <row r="30" spans="1:13" ht="24" customHeight="1">
       <c r="A30" s="50" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B30" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="49" t="s">
-        <v>96</v>
+      <c r="C30" s="69" t="s">
+        <v>155</v>
       </c>
       <c r="D30" s="49" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="52"/>
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="53"/>
+      <c r="J30" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="53">
+        <v>272</v>
+      </c>
       <c r="L30" s="51"/>
-      <c r="M30" s="51" t="s">
-        <v>90</v>
-      </c>
+      <c r="M30" s="51"/>
     </row>
     <row r="31" spans="1:13" ht="24" customHeight="1">
       <c r="A31" s="50" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B31" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="D31" s="49" t="s">
         <v>84</v>
@@ -6573,67 +7691,53 @@
       <c r="G31" s="52"/>
       <c r="H31" s="51"/>
       <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="53"/>
+      <c r="J31" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="K31" s="53">
+        <v>600</v>
+      </c>
       <c r="L31" s="51"/>
-      <c r="M31" s="51" t="s">
-        <v>86</v>
-      </c>
+      <c r="M31" s="51"/>
     </row>
     <row r="32" spans="1:13" ht="24" customHeight="1">
-      <c r="A32" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>89</v>
-      </c>
+      <c r="A32" s="5"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="51"/>
       <c r="G32" s="52"/>
       <c r="H32" s="51"/>
       <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="53"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="68"/>
       <c r="L32" s="51"/>
-      <c r="M32" s="51" t="s">
-        <v>92</v>
-      </c>
+      <c r="M32" s="51"/>
     </row>
     <row r="33" spans="1:13" ht="24" customHeight="1">
       <c r="A33" s="50" t="s">
         <v>69</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>89</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E33" s="51"/>
       <c r="F33" s="51"/>
       <c r="G33" s="52"/>
-      <c r="H33" s="51" t="s">
-        <v>131</v>
-      </c>
+      <c r="H33" s="51"/>
       <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
+      <c r="J33" s="70"/>
       <c r="K33" s="53"/>
       <c r="L33" s="51"/>
       <c r="M33" s="51" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="24" customHeight="1">
@@ -6641,26 +7745,24 @@
         <v>69</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D34" s="49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E34" s="51"/>
       <c r="F34" s="51"/>
       <c r="G34" s="52"/>
-      <c r="H34" s="51" t="s">
-        <v>93</v>
-      </c>
+      <c r="H34" s="51"/>
       <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
+      <c r="J34" s="70"/>
       <c r="K34" s="53"/>
       <c r="L34" s="51"/>
       <c r="M34" s="51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="24" customHeight="1">
@@ -6671,33 +7773,37 @@
         <v>73</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D35" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="51"/>
+        <v>84</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>89</v>
+      </c>
       <c r="F35" s="51"/>
       <c r="G35" s="52"/>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
+      <c r="J35" s="70"/>
       <c r="K35" s="53"/>
       <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
+      <c r="M35" s="51" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="24" customHeight="1">
       <c r="A36" s="50" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D36" s="49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E36" s="51" t="s">
         <v>89</v>
@@ -6706,25 +7812,25 @@
       <c r="G36" s="52"/>
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
-      <c r="J36" s="54" t="s">
-        <v>132</v>
-      </c>
+      <c r="J36" s="70"/>
       <c r="K36" s="53"/>
       <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
+      <c r="M36" s="51" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="24" customHeight="1">
       <c r="A37" s="50" t="s">
         <v>69</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D37" s="49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E37" s="51" t="s">
         <v>89</v>
@@ -6733,12 +7839,12 @@
       <c r="G37" s="52"/>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
-      <c r="J37" s="54" t="s">
-        <v>132</v>
-      </c>
+      <c r="J37" s="70"/>
       <c r="K37" s="53"/>
       <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
+      <c r="M37" s="51" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="24" customHeight="1">
       <c r="A38" s="50" t="s">
@@ -6748,7 +7854,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D38" s="49" t="s">
         <v>83</v>
@@ -6758,14 +7864,16 @@
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="52"/>
-      <c r="H38" s="51"/>
+      <c r="H38" s="51" t="s">
+        <v>120</v>
+      </c>
       <c r="I38" s="51"/>
-      <c r="J38" s="49" t="s">
-        <v>100</v>
-      </c>
+      <c r="J38" s="70"/>
       <c r="K38" s="53"/>
       <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
+      <c r="M38" s="51" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="24" customHeight="1">
       <c r="A39" s="50" t="s">
@@ -6775,7 +7883,7 @@
         <v>82</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D39" s="49" t="s">
         <v>83</v>
@@ -6783,36 +7891,36 @@
       <c r="E39" s="51"/>
       <c r="F39" s="51"/>
       <c r="G39" s="52"/>
-      <c r="H39" s="51"/>
+      <c r="H39" s="51" t="s">
+        <v>93</v>
+      </c>
       <c r="I39" s="51"/>
-      <c r="J39" s="49" t="s">
-        <v>100</v>
-      </c>
+      <c r="J39" s="70"/>
       <c r="K39" s="53"/>
       <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
+      <c r="M39" s="51" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="24" customHeight="1">
       <c r="A40" s="50" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E40" s="51"/>
       <c r="F40" s="51"/>
       <c r="G40" s="52"/>
       <c r="H40" s="51"/>
       <c r="I40" s="51"/>
-      <c r="J40" s="54" t="s">
-        <v>132</v>
-      </c>
+      <c r="J40" s="70"/>
       <c r="K40" s="53"/>
       <c r="L40" s="51"/>
       <c r="M40" s="51"/>
@@ -6825,18 +7933,20 @@
         <v>82</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="51"/>
+        <v>83</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>89</v>
+      </c>
       <c r="F41" s="51"/>
       <c r="G41" s="52"/>
       <c r="H41" s="51"/>
       <c r="I41" s="51"/>
-      <c r="J41" s="54" t="s">
-        <v>132</v>
+      <c r="J41" s="71" t="s">
+        <v>121</v>
       </c>
       <c r="K41" s="53"/>
       <c r="L41" s="51"/>
@@ -6850,22 +7960,151 @@
         <v>82</v>
       </c>
       <c r="C42" s="49" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="51"/>
+        <v>83</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>89</v>
+      </c>
       <c r="F42" s="51"/>
       <c r="G42" s="52"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="54" t="s">
-        <v>132</v>
+      <c r="J42" s="71" t="s">
+        <v>121</v>
       </c>
       <c r="K42" s="53"/>
       <c r="L42" s="51"/>
       <c r="M42" s="51"/>
+    </row>
+    <row r="43" spans="1:13" ht="24" customHeight="1">
+      <c r="A43" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="51"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="K43" s="53"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+    </row>
+    <row r="44" spans="1:13" ht="24" customHeight="1">
+      <c r="A44" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44" s="53"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+    </row>
+    <row r="45" spans="1:13" ht="24" customHeight="1">
+      <c r="A45" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="K45" s="53"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+    </row>
+    <row r="46" spans="1:13" ht="24" customHeight="1">
+      <c r="A46" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="K46" s="53"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+    </row>
+    <row r="47" spans="1:13" ht="24" customHeight="1">
+      <c r="A47" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="K47" s="53"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/INPUT/test/example4.xlsx
+++ b/INPUT/test/example4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2MaiML2/INPUT/test2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Expansion/現在進行形/90_PublicGithub/MaiMLFileHandlingPtograms/Excel2DocandProtocolofMaiML/INPUT/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9402825D-FE35-3A44-8FAC-7E379ED0E3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12A673D-9183-8C42-8B58-4F75FDB35E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="700" windowWidth="37900" windowHeight="27000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="700" windowWidth="37900" windowHeight="27000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="176">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -880,6 +880,10 @@
   </si>
   <si>
     <t>HPLC_Sample_Preparation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UUID</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1314,7 +1318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1528,12 +1532,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6017,7 +6015,7 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -6642,10 +6640,83 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="9" width="26.6640625" style="2"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B21F46-C424-6A4F-8FFC-BA2D61EB5EC2}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
@@ -6662,7 +6733,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -6682,103 +6753,39 @@
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>125</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="48" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>71</v>
+      <c r="G2" s="67" t="s">
+        <v>135</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B21F46-C424-6A4F-8FFC-BA2D61EB5EC2}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="7" width="26.6640625" style="2"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -6791,19 +6798,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="7" width="26.6640625" style="2"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="1" max="8" width="26.6640625" style="2"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -6811,54 +6818,59 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -6871,10 +6883,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="14"/>
@@ -6888,12 +6900,12 @@
     <col min="8" max="9" width="20.1640625" style="45" customWidth="1"/>
     <col min="10" max="10" width="32.1640625" style="45" customWidth="1"/>
     <col min="11" max="11" width="38.33203125" style="46" customWidth="1"/>
-    <col min="12" max="13" width="25.1640625" style="45"/>
-    <col min="14" max="14" width="5.83203125" style="44" customWidth="1"/>
-    <col min="15" max="16384" width="25.1640625" style="44"/>
+    <col min="12" max="12" width="25.1640625" style="45"/>
+    <col min="13" max="13" width="5.83203125" style="44" customWidth="1"/>
+    <col min="14" max="16384" width="25.1640625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1">
+    <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -6928,13 +6940,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1">
+    <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="50" t="s">
         <v>67</v>
       </c>
@@ -6955,9 +6964,8 @@
       <c r="J2" s="51"/>
       <c r="K2" s="53"/>
       <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>67</v>
       </c>
@@ -6982,9 +6990,8 @@
         <v>81</v>
       </c>
       <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1">
       <c r="A4" s="50" t="s">
         <v>67</v>
       </c>
@@ -7009,9 +7016,8 @@
         <v>80</v>
       </c>
       <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -7024,9 +7030,8 @@
       <c r="J5" s="51"/>
       <c r="K5" s="68"/>
       <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-    </row>
-    <row r="6" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1">
       <c r="A6" s="50" t="s">
         <v>68</v>
       </c>
@@ -7044,14 +7049,13 @@
       <c r="G6" s="52"/>
       <c r="H6" s="51"/>
       <c r="I6" s="51"/>
-      <c r="J6" s="70"/>
+      <c r="J6" s="51"/>
       <c r="K6" s="53"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51" t="s">
+      <c r="L6" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1">
+    <row r="7" spans="1:12" ht="24" customHeight="1">
       <c r="A7" s="50" t="s">
         <v>68</v>
       </c>
@@ -7069,18 +7073,17 @@
       <c r="G7" s="52"/>
       <c r="H7" s="51"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="51" t="s">
         <v>116</v>
       </c>
       <c r="K7" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51" t="s">
+      <c r="L7" s="51" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1">
+    <row r="8" spans="1:12" ht="24" customHeight="1">
       <c r="A8" s="50" t="s">
         <v>68</v>
       </c>
@@ -7098,16 +7101,15 @@
       <c r="G8" s="52"/>
       <c r="H8" s="51"/>
       <c r="I8" s="51"/>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="51" t="s">
         <v>139</v>
       </c>
       <c r="K8" s="68"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51" t="s">
+      <c r="L8" s="51" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="24" customHeight="1">
+    <row r="9" spans="1:12" ht="24" customHeight="1">
       <c r="A9" s="50" t="s">
         <v>68</v>
       </c>
@@ -7125,18 +7127,17 @@
       <c r="G9" s="52"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="51" t="s">
         <v>116</v>
       </c>
       <c r="K9" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51" t="s">
+      <c r="L9" s="51" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24" customHeight="1">
+    <row r="10" spans="1:12" ht="24" customHeight="1">
       <c r="A10" s="50" t="s">
         <v>68</v>
       </c>
@@ -7154,16 +7155,15 @@
       <c r="G10" s="52"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="51" t="s">
         <v>145</v>
       </c>
       <c r="K10" s="68"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51" t="s">
+      <c r="L10" s="51" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="24" customHeight="1">
+    <row r="11" spans="1:12" ht="24" customHeight="1">
       <c r="A11" s="50" t="s">
         <v>68</v>
       </c>
@@ -7181,16 +7181,15 @@
       <c r="G11" s="52"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="51" t="s">
         <v>116</v>
       </c>
       <c r="K11" s="68"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51" t="s">
+      <c r="L11" s="51" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="24" customHeight="1">
+    <row r="12" spans="1:12" ht="24" customHeight="1">
       <c r="A12" s="50" t="s">
         <v>68</v>
       </c>
@@ -7208,18 +7207,17 @@
       <c r="G12" s="52"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
-      <c r="J12" s="70" t="s">
+      <c r="J12" s="51" t="s">
         <v>165</v>
       </c>
       <c r="K12" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51" t="s">
+      <c r="L12" s="51" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="24" customHeight="1">
+    <row r="13" spans="1:12" ht="24" customHeight="1">
       <c r="A13" s="50" t="s">
         <v>68</v>
       </c>
@@ -7237,18 +7235,17 @@
       <c r="G13" s="52"/>
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
-      <c r="J13" s="70" t="s">
+      <c r="J13" s="51" t="s">
         <v>116</v>
       </c>
       <c r="K13" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51" t="s">
+      <c r="L13" s="51" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="24" customHeight="1">
+    <row r="14" spans="1:12" ht="24" customHeight="1">
       <c r="A14" s="50" t="s">
         <v>68</v>
       </c>
@@ -7266,18 +7263,17 @@
       <c r="G14" s="52"/>
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="51" t="s">
         <v>169</v>
       </c>
       <c r="K14" t="s">
         <v>172</v>
       </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51" t="s">
+      <c r="L14" s="51" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="24" customHeight="1">
+    <row r="15" spans="1:12" ht="24" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -7287,12 +7283,11 @@
       <c r="G15" s="52"/>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
-      <c r="J15" s="70"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="68"/>
       <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="16" spans="1:12" ht="24" customHeight="1">
       <c r="A16" s="50" t="s">
         <v>133</v>
       </c>
@@ -7310,12 +7305,11 @@
       <c r="G16" s="52"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
-      <c r="J16" s="70"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="53"/>
       <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-    </row>
-    <row r="17" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="17" spans="1:12" ht="24" customHeight="1">
       <c r="A17" s="50" t="s">
         <v>133</v>
       </c>
@@ -7333,16 +7327,15 @@
       <c r="G17" s="52"/>
       <c r="H17" s="51"/>
       <c r="I17" s="51"/>
-      <c r="J17" s="70" t="s">
+      <c r="J17" s="51" t="s">
         <v>75</v>
       </c>
       <c r="K17" s="53" t="s">
         <v>81</v>
       </c>
       <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-    </row>
-    <row r="18" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="18" spans="1:12" ht="24" customHeight="1">
       <c r="A18" s="50" t="s">
         <v>133</v>
       </c>
@@ -7360,16 +7353,15 @@
       <c r="G18" s="52"/>
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
-      <c r="J18" s="70" t="s">
+      <c r="J18" s="51" t="s">
         <v>75</v>
       </c>
       <c r="K18" s="53" t="s">
         <v>80</v>
       </c>
       <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-    </row>
-    <row r="19" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="19" spans="1:12" ht="24" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -7379,12 +7371,11 @@
       <c r="G19" s="52"/>
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="70"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="68"/>
       <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-    </row>
-    <row r="20" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="20" spans="1:12" ht="24" customHeight="1">
       <c r="A20" s="50" t="s">
         <v>134</v>
       </c>
@@ -7402,14 +7393,13 @@
       <c r="G20" s="52"/>
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
-      <c r="J20" s="70"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="53"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51" t="s">
+      <c r="L20" s="51" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="24" customHeight="1">
+    <row r="21" spans="1:12" ht="24" customHeight="1">
       <c r="A21" s="50" t="s">
         <v>134</v>
       </c>
@@ -7427,14 +7417,13 @@
       <c r="G21" s="52"/>
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
-      <c r="J21" s="70" t="s">
+      <c r="J21" s="51" t="s">
         <v>109</v>
       </c>
       <c r="K21" s="53"/>
       <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-    </row>
-    <row r="22" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="22" spans="1:12" ht="24" customHeight="1">
       <c r="A22" s="50" t="s">
         <v>134</v>
       </c>
@@ -7452,14 +7441,13 @@
       <c r="G22" s="52"/>
       <c r="H22" s="51"/>
       <c r="I22" s="51"/>
-      <c r="J22" s="70"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="53"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51" t="s">
+      <c r="L22" s="51" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="24" customHeight="1">
+    <row r="23" spans="1:12" ht="24" customHeight="1">
       <c r="A23" s="50" t="s">
         <v>134</v>
       </c>
@@ -7477,16 +7465,15 @@
       <c r="G23" s="52"/>
       <c r="H23" s="51"/>
       <c r="I23" s="51"/>
-      <c r="J23" s="70" t="s">
+      <c r="J23" s="51" t="s">
         <v>146</v>
       </c>
       <c r="K23" s="53"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51" t="s">
+      <c r="L23" s="51" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="24" customHeight="1">
+    <row r="24" spans="1:12" ht="24" customHeight="1">
       <c r="A24" s="50" t="s">
         <v>134</v>
       </c>
@@ -7504,14 +7491,13 @@
       <c r="G24" s="52"/>
       <c r="H24" s="51"/>
       <c r="I24" s="51"/>
-      <c r="J24" s="70"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="53"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51" t="s">
+      <c r="L24" s="51" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="24" customHeight="1">
+    <row r="25" spans="1:12" ht="24" customHeight="1">
       <c r="A25" s="50" t="s">
         <v>134</v>
       </c>
@@ -7529,16 +7515,15 @@
       <c r="G25" s="52"/>
       <c r="H25" s="51"/>
       <c r="I25" s="51"/>
-      <c r="J25" s="70" t="s">
+      <c r="J25" s="51" t="s">
         <v>119</v>
       </c>
       <c r="K25" s="53" t="s">
         <v>154</v>
       </c>
       <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-    </row>
-    <row r="26" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="26" spans="1:12" ht="24" customHeight="1">
       <c r="A26" s="50" t="s">
         <v>134</v>
       </c>
@@ -7556,12 +7541,11 @@
       <c r="G26" s="52"/>
       <c r="H26" s="51"/>
       <c r="I26" s="51"/>
-      <c r="J26" s="70"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="53"/>
       <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-    </row>
-    <row r="27" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="27" spans="1:12" ht="24" customHeight="1">
       <c r="A27" s="50" t="s">
         <v>134</v>
       </c>
@@ -7581,14 +7565,13 @@
       <c r="G27" s="52"/>
       <c r="H27" s="51"/>
       <c r="I27" s="51"/>
-      <c r="J27" s="70" t="s">
+      <c r="J27" s="51" t="s">
         <v>151</v>
       </c>
       <c r="K27" s="53"/>
       <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-    </row>
-    <row r="28" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="28" spans="1:12" ht="24" customHeight="1">
       <c r="A28" s="50" t="s">
         <v>134</v>
       </c>
@@ -7608,14 +7591,13 @@
       <c r="G28" s="52"/>
       <c r="H28" s="51"/>
       <c r="I28" s="51"/>
-      <c r="J28" s="70" t="s">
+      <c r="J28" s="51" t="s">
         <v>151</v>
       </c>
       <c r="K28" s="53"/>
       <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-    </row>
-    <row r="29" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="29" spans="1:12" ht="24" customHeight="1">
       <c r="A29" s="50" t="s">
         <v>134</v>
       </c>
@@ -7635,14 +7617,13 @@
       <c r="G29" s="52"/>
       <c r="H29" s="51"/>
       <c r="I29" s="51"/>
-      <c r="J29" s="70" t="s">
+      <c r="J29" s="51" t="s">
         <v>151</v>
       </c>
       <c r="K29" s="53"/>
       <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-    </row>
-    <row r="30" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="30" spans="1:12" ht="24" customHeight="1">
       <c r="A30" s="50" t="s">
         <v>134</v>
       </c>
@@ -7662,16 +7643,15 @@
       <c r="G30" s="52"/>
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
-      <c r="J30" s="70" t="s">
+      <c r="J30" s="51" t="s">
         <v>151</v>
       </c>
       <c r="K30" s="53">
         <v>272</v>
       </c>
       <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-    </row>
-    <row r="31" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="31" spans="1:12" ht="24" customHeight="1">
       <c r="A31" s="50" t="s">
         <v>134</v>
       </c>
@@ -7691,16 +7671,15 @@
       <c r="G31" s="52"/>
       <c r="H31" s="51"/>
       <c r="I31" s="51"/>
-      <c r="J31" s="70" t="s">
+      <c r="J31" s="51" t="s">
         <v>151</v>
       </c>
       <c r="K31" s="53">
         <v>600</v>
       </c>
       <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-    </row>
-    <row r="32" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="32" spans="1:12" ht="24" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -7710,12 +7689,11 @@
       <c r="G32" s="52"/>
       <c r="H32" s="51"/>
       <c r="I32" s="51"/>
-      <c r="J32" s="70"/>
+      <c r="J32" s="51"/>
       <c r="K32" s="68"/>
       <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-    </row>
-    <row r="33" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="33" spans="1:12" ht="24" customHeight="1">
       <c r="A33" s="50" t="s">
         <v>69</v>
       </c>
@@ -7733,14 +7711,13 @@
       <c r="G33" s="52"/>
       <c r="H33" s="51"/>
       <c r="I33" s="51"/>
-      <c r="J33" s="70"/>
+      <c r="J33" s="51"/>
       <c r="K33" s="53"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51" t="s">
+      <c r="L33" s="51" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="24" customHeight="1">
+    <row r="34" spans="1:12" ht="24" customHeight="1">
       <c r="A34" s="50" t="s">
         <v>69</v>
       </c>
@@ -7758,14 +7735,13 @@
       <c r="G34" s="52"/>
       <c r="H34" s="51"/>
       <c r="I34" s="51"/>
-      <c r="J34" s="70"/>
+      <c r="J34" s="51"/>
       <c r="K34" s="53"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51" t="s">
+      <c r="L34" s="51" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="24" customHeight="1">
+    <row r="35" spans="1:12" ht="24" customHeight="1">
       <c r="A35" s="50" t="s">
         <v>69</v>
       </c>
@@ -7785,14 +7761,13 @@
       <c r="G35" s="52"/>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
-      <c r="J35" s="70"/>
+      <c r="J35" s="51"/>
       <c r="K35" s="53"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51" t="s">
+      <c r="L35" s="51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="24" customHeight="1">
+    <row r="36" spans="1:12" ht="24" customHeight="1">
       <c r="A36" s="50" t="s">
         <v>69</v>
       </c>
@@ -7812,14 +7787,13 @@
       <c r="G36" s="52"/>
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
-      <c r="J36" s="70"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="53"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51" t="s">
+      <c r="L36" s="51" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="24" customHeight="1">
+    <row r="37" spans="1:12" ht="24" customHeight="1">
       <c r="A37" s="50" t="s">
         <v>69</v>
       </c>
@@ -7839,14 +7813,13 @@
       <c r="G37" s="52"/>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
-      <c r="J37" s="70"/>
+      <c r="J37" s="51"/>
       <c r="K37" s="53"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51" t="s">
+      <c r="L37" s="51" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="24" customHeight="1">
+    <row r="38" spans="1:12" ht="24" customHeight="1">
       <c r="A38" s="50" t="s">
         <v>69</v>
       </c>
@@ -7868,14 +7841,13 @@
         <v>120</v>
       </c>
       <c r="I38" s="51"/>
-      <c r="J38" s="70"/>
+      <c r="J38" s="51"/>
       <c r="K38" s="53"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51" t="s">
+      <c r="L38" s="51" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="24" customHeight="1">
+    <row r="39" spans="1:12" ht="24" customHeight="1">
       <c r="A39" s="50" t="s">
         <v>69</v>
       </c>
@@ -7895,14 +7867,13 @@
         <v>93</v>
       </c>
       <c r="I39" s="51"/>
-      <c r="J39" s="70"/>
+      <c r="J39" s="51"/>
       <c r="K39" s="53"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51" t="s">
+      <c r="L39" s="51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="24" customHeight="1">
+    <row r="40" spans="1:12" ht="24" customHeight="1">
       <c r="A40" s="50" t="s">
         <v>69</v>
       </c>
@@ -7920,12 +7891,11 @@
       <c r="G40" s="52"/>
       <c r="H40" s="51"/>
       <c r="I40" s="51"/>
-      <c r="J40" s="70"/>
+      <c r="J40" s="51"/>
       <c r="K40" s="53"/>
       <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-    </row>
-    <row r="41" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="41" spans="1:12" ht="24" customHeight="1">
       <c r="A41" s="50" t="s">
         <v>69</v>
       </c>
@@ -7945,14 +7915,13 @@
       <c r="G41" s="52"/>
       <c r="H41" s="51"/>
       <c r="I41" s="51"/>
-      <c r="J41" s="71" t="s">
+      <c r="J41" s="54" t="s">
         <v>121</v>
       </c>
       <c r="K41" s="53"/>
       <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-    </row>
-    <row r="42" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="42" spans="1:12" ht="24" customHeight="1">
       <c r="A42" s="50" t="s">
         <v>69</v>
       </c>
@@ -7972,14 +7941,13 @@
       <c r="G42" s="52"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="71" t="s">
-        <v>121</v>
+      <c r="J42" s="51" t="s">
+        <v>100</v>
       </c>
       <c r="K42" s="53"/>
       <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-    </row>
-    <row r="43" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="43" spans="1:12" ht="24" customHeight="1">
       <c r="A43" s="50" t="s">
         <v>69</v>
       </c>
@@ -7999,14 +7967,13 @@
       <c r="G43" s="52"/>
       <c r="H43" s="51"/>
       <c r="I43" s="51"/>
-      <c r="J43" s="70" t="s">
+      <c r="J43" s="51" t="s">
         <v>100</v>
       </c>
       <c r="K43" s="53"/>
       <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-    </row>
-    <row r="44" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="44" spans="1:12" ht="24" customHeight="1">
       <c r="A44" s="50" t="s">
         <v>69</v>
       </c>
@@ -8024,14 +7991,13 @@
       <c r="G44" s="52"/>
       <c r="H44" s="51"/>
       <c r="I44" s="51"/>
-      <c r="J44" s="70" t="s">
-        <v>100</v>
+      <c r="J44" s="54" t="s">
+        <v>121</v>
       </c>
       <c r="K44" s="53"/>
       <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-    </row>
-    <row r="45" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="45" spans="1:12" ht="24" customHeight="1">
       <c r="A45" s="50" t="s">
         <v>69</v>
       </c>
@@ -8049,14 +8015,13 @@
       <c r="G45" s="52"/>
       <c r="H45" s="51"/>
       <c r="I45" s="51"/>
-      <c r="J45" s="71" t="s">
+      <c r="J45" s="54" t="s">
         <v>121</v>
       </c>
       <c r="K45" s="53"/>
       <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-    </row>
-    <row r="46" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="46" spans="1:12" ht="24" customHeight="1">
       <c r="A46" s="50" t="s">
         <v>69</v>
       </c>
@@ -8079,9 +8044,8 @@
       </c>
       <c r="K46" s="53"/>
       <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-    </row>
-    <row r="47" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="47" spans="1:12" ht="24" customHeight="1">
       <c r="A47" s="50" t="s">
         <v>69</v>
       </c>
@@ -8104,7 +8068,6 @@
       </c>
       <c r="K47" s="53"/>
       <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
